--- a/Input/VBSimInputAGB2002.xlsx
+++ b/Input/VBSimInputAGB2002.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D370BA25-5916-4174-BFE4-69A9B2572CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E95493D-44DB-4599-846F-8E22912F8265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37725" yWindow="-3165" windowWidth="27735" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="30">
   <si>
     <t>NumVeh</t>
   </si>
@@ -88,13 +99,28 @@
     <t>100,0</t>
   </si>
   <si>
-    <t>/AGB2002_VB</t>
-  </si>
-  <si>
     <t>AGBBox.Mp,AGBTwin.Standard.Mp</t>
   </si>
   <si>
     <t>AGBBox,AGBTwin,AGBMulti,AGBSlab</t>
+  </si>
+  <si>
+    <t>/AGB2002_VBF</t>
+  </si>
+  <si>
+    <t>Denges2019</t>
+  </si>
+  <si>
+    <t>Oberburen2019</t>
+  </si>
+  <si>
+    <t>Gotthard2019</t>
+  </si>
+  <si>
+    <t>Ceneri2019</t>
+  </si>
+  <si>
+    <t>/AGB2019</t>
   </si>
 </sst>
 </file>
@@ -148,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -163,6 +189,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -479,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,7 +582,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
@@ -562,7 +591,7 @@
         <v>1000</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -597,7 +626,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>8</v>
@@ -605,8 +634,9 @@
       <c r="G3" s="2">
         <v>1000</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
+      <c r="H3" s="3" t="str">
+        <f>H2</f>
+        <v>/AGB2002_VBF</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -637,7 +667,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>8</v>
@@ -645,8 +675,9 @@
       <c r="G4" s="2">
         <v>1000</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
+      <c r="H4" s="3" t="str">
+        <f>H3</f>
+        <v>/AGB2002_VBF</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -677,7 +708,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
@@ -685,8 +716,9 @@
       <c r="G5" s="2">
         <v>1000</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
+      <c r="H5" s="3" t="str">
+        <f t="shared" ref="H5:H13" si="0">H4</f>
+        <v>/AGB2002_VBF</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -717,7 +749,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -725,8 +757,9 @@
       <c r="G6" s="2">
         <v>1000</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>22</v>
+      <c r="H6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>/AGB2002_VBF</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -757,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>19</v>
@@ -765,8 +798,9 @@
       <c r="G7" s="2">
         <v>1000</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>22</v>
+      <c r="H7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>/AGB2002_VBF</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -797,7 +831,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>20</v>
@@ -805,8 +839,9 @@
       <c r="G8" s="2">
         <v>1000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>22</v>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>/AGB2002_VBF</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -837,7 +872,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>20</v>
@@ -845,8 +880,9 @@
       <c r="G9" s="2">
         <v>1000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>22</v>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>/AGB2002_VBF</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -877,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>20</v>
@@ -885,8 +921,9 @@
       <c r="G10" s="2">
         <v>1000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>22</v>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>/AGB2002_VBF</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -917,7 +954,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>21</v>
@@ -925,8 +962,9 @@
       <c r="G11" s="2">
         <v>1000</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>22</v>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>/AGB2002_VBF</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -957,7 +995,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>21</v>
@@ -965,8 +1003,9 @@
       <c r="G12" s="2">
         <v>1000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>22</v>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>/AGB2002_VBF</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
@@ -997,7 +1036,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>21</v>
@@ -1005,8 +1044,9 @@
       <c r="G13" s="2">
         <v>1000</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>22</v>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>/AGB2002_VBF</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
@@ -1022,6 +1062,629 @@
       </c>
       <c r="N13" s="3"/>
       <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f>H14</f>
+        <v>/AGB2019</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f>H15</f>
+        <v>/AGB2019</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f>H16</f>
+        <v>/AGB2019</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="3" t="str">
+        <f>H16</f>
+        <v>/AGB2019</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f t="shared" ref="H19:H28" si="1">H18</f>
+        <v>/AGB2019</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>/AGB2019</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="3" t="str">
+        <f t="shared" ref="H21" si="2">H20</f>
+        <v>/AGB2019</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f>H20</f>
+        <v>/AGB2019</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>/AGB2019</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>/AGB2019</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" ref="H25" si="3">H24</f>
+        <v>/AGB2019</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f>H24</f>
+        <v>/AGB2019</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>/AGB2019</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>/AGB2019</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="3" t="str">
+        <f t="shared" ref="H29" si="4">H28</f>
+        <v>/AGB2019</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
